--- a/ExcelResumenFactura2.xlsx
+++ b/ExcelResumenFactura2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="532">
   <si>
     <t>8006.pdf</t>
   </si>
@@ -22,7 +22,7 @@
     <t>-449.00 €</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">Jorge Juan cifre Jaume </t>
   </si>
   <si>
     <t>8009.pdf</t>
@@ -34,7 +34,7 @@
     <t>35.00 €</t>
   </si>
   <si>
-    <t>APARTAMENTOS MAESTRANZA, S.L.</t>
+    <t xml:space="preserve">APARTAMENTOS MAESTRANZA, S.L. </t>
   </si>
   <si>
     <t>ES0031103514322046MG</t>
@@ -193,7 +193,7 @@
     <t>1664.00</t>
   </si>
   <si>
-    <t>CP EDIFICIO AZORIN C/PEÑON DE IFACH 10 ETERGYxYYxSumiller FijoxYYx2.0TD 1664.00</t>
+    <t>CP EDIFICIO AZORIN C/PEÑON DE IFACH 10 ETERGY</t>
   </si>
   <si>
     <t>ES0021000010364492SE</t>
@@ -202,19 +202,25 @@
     <t>145.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">CP ENTRETORRES 30 </t>
+  </si>
+  <si>
     <t>ES0021000007492755RL</t>
   </si>
   <si>
     <t>102.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">CL DOMINGO SABIO, 5 </t>
+  </si>
+  <si>
     <t>ES0021000007477390TH</t>
   </si>
   <si>
     <t>163.00 €</t>
   </si>
   <si>
-    <t>CP JUVENTINO NIETO BLANCO 9 C2/3</t>
+    <t xml:space="preserve">CP JUVENTINO NIETO BLANCO 9 C2/3 </t>
   </si>
   <si>
     <t>ES0021000007484626QD</t>
@@ -223,7 +229,7 @@
     <t>106.00 €</t>
   </si>
   <si>
-    <t>AVDA FRANCISCO AGUIRRE NUM 324</t>
+    <t xml:space="preserve">AVDA FRANCISCO AGUIRRE NUM 324 </t>
   </si>
   <si>
     <t>ES0021000007494460YE</t>
@@ -232,19 +238,25 @@
     <t>147.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">CL SANTO DOMINGO 16 </t>
+  </si>
+  <si>
     <t>ES0021000007503623ZP</t>
   </si>
   <si>
     <t>105.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">CP GASPAR DUQUE 9 </t>
+  </si>
+  <si>
     <t>ES0021000007478116DP</t>
   </si>
   <si>
     <t>193.00 €</t>
   </si>
   <si>
-    <t>CP GRAN CHAPARRAL BAJO</t>
+    <t xml:space="preserve">CP GRAN CHAPARRAL BAJO </t>
   </si>
   <si>
     <t>ES0021000007484583ZN</t>
@@ -253,7 +265,7 @@
     <t>84.00 €</t>
   </si>
   <si>
-    <t>CP AV FRANCISO AGUIRRE 320</t>
+    <t xml:space="preserve">CP AV FRANCISO AGUIRRE 320 </t>
   </si>
   <si>
     <t>ES0021000007503085JE</t>
@@ -262,7 +274,7 @@
     <t>220.00 €</t>
   </si>
   <si>
-    <t>CP JUAN SEBASTIAN ELCANO 8</t>
+    <t xml:space="preserve">CP JUAN SEBASTIAN ELCANO 8 </t>
   </si>
   <si>
     <t>ES0021000011276772MF</t>
@@ -271,7 +283,7 @@
     <t>166.00 €</t>
   </si>
   <si>
-    <t>SUBCP PORTAL 6,ENTRETORRES,PUENTE MORIS Y SAN CLEMENTE S/N</t>
+    <t xml:space="preserve">SUBCP PORTAL 6,ENTRETORRES,PUENTE MORIS Y SAN CLEMENTE S/N </t>
   </si>
   <si>
     <t>ES0021000007479957CD</t>
@@ -280,16 +292,22 @@
     <t>138.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">CP VELADA 6 </t>
+  </si>
+  <si>
     <t>ES0021000007510690EZ</t>
   </si>
   <si>
     <t>78.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">CP LAGARTERA 6 </t>
+  </si>
+  <si>
     <t>ES0021000007469378CX</t>
   </si>
   <si>
-    <t>CP MARQUES DE MIRASOL 23</t>
+    <t xml:space="preserve">CP MARQUES DE MIRASOL 23 </t>
   </si>
   <si>
     <t>ES0021000012253858YF</t>
@@ -298,7 +316,7 @@
     <t>127.00 €</t>
   </si>
   <si>
-    <t>SUBCDAD VIVIENDAS JUAN SUAREZ CARVAJAL, 6</t>
+    <t xml:space="preserve">SUBCDAD VIVIENDAS JUAN SUAREZ CARVAJAL, 6 </t>
   </si>
   <si>
     <t>ES0021000010414965WX</t>
@@ -307,19 +325,25 @@
     <t>183.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">CP ENTRETORRES 34 </t>
+  </si>
+  <si>
     <t>ES0021000007480410VW</t>
   </si>
   <si>
     <t>210.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">SUBCP EL PARQUE N4 </t>
+  </si>
+  <si>
     <t>ES0021000007477064DZ</t>
   </si>
   <si>
     <t>109.00 €</t>
   </si>
   <si>
-    <t>CP CL MIGUEL ANGEL N 9, 11 Y 13</t>
+    <t xml:space="preserve">CP CL MIGUEL ANGEL N 9, 11 Y 13 </t>
   </si>
   <si>
     <t>ES0021000007477031PG</t>
@@ -340,7 +364,7 @@
     <t>173.00 €</t>
   </si>
   <si>
-    <t>CP OCEANA VIEWS&amp;COLLECTION</t>
+    <t xml:space="preserve">CP OCEANA VIEWS&amp;COLLECTION </t>
   </si>
   <si>
     <t>ES0031105371712007PX</t>
@@ -355,7 +379,7 @@
     <t>70.00 €</t>
   </si>
   <si>
-    <t>CP C/CARDENAL GIL DE ALBORNOZ 55</t>
+    <t xml:space="preserve">CP C/CARDENAL GIL DE ALBORNOZ 55 </t>
   </si>
   <si>
     <t>ES0031105371707007KR</t>
@@ -424,7 +448,7 @@
     <t>2507.00</t>
   </si>
   <si>
-    <t>CP OCEANA VIEWS&amp;COLLECTION ETERGYxYYxSumiller FijoxYYx3.0TD 2507.00</t>
+    <t>CP OCEANA VIEWS&amp;COLLECTION ETERGY</t>
   </si>
   <si>
     <t>ES0031105473597037SP</t>
@@ -433,16 +457,13 @@
     <t>2271.00</t>
   </si>
   <si>
-    <t>CP OCEANA VIEWS&amp;COLLECTION ETERGYxYYxSumiller FijoxYYx3.0TD 2271.00</t>
-  </si>
-  <si>
     <t>ES0021000007484312WV</t>
   </si>
   <si>
     <t>103.00 €</t>
   </si>
   <si>
-    <t>CP AVDA FRANCISCO AGUIRRE 284</t>
+    <t xml:space="preserve">CP AVDA FRANCISCO AGUIRRE 284 </t>
   </si>
   <si>
     <t>ES0031104028234002DY</t>
@@ -451,7 +472,7 @@
     <t>-61.00 €</t>
   </si>
   <si>
-    <t>CDAD PROP ISLA DE GUADALMINA</t>
+    <t xml:space="preserve">CDAD PROP ISLA DE GUADALMINA </t>
   </si>
   <si>
     <t>ES0021000040999925SF</t>
@@ -460,7 +481,7 @@
     <t>-1568.00</t>
   </si>
   <si>
-    <t>COM PROP CALLE BAILARIN JOSE ESPADERO, 9 REGULARIZACION</t>
+    <t xml:space="preserve">COM PROP CALLE BAILARIN JOSE ESPADERO, 9 REGULARIZACION </t>
   </si>
   <si>
     <t>8011.pdf</t>
@@ -469,19 +490,19 @@
     <t>ES0022000008226632ZW</t>
   </si>
   <si>
-    <t>SUSANA CARRASCO REINOSA ENDESA PAPEL -</t>
+    <t xml:space="preserve">SUSANA CARRASCO REINOSA ENDESA PAPEL - </t>
   </si>
   <si>
     <t>ES0027700564883014WT</t>
   </si>
   <si>
-    <t>JUAN ALBERTO GUTIERREZ MENENDEZ ENDESA PAPEL -</t>
+    <t xml:space="preserve">JUAN ALBERTO GUTIERREZ MENENDEZ ENDESA PAPEL - </t>
   </si>
   <si>
     <t>ES0027460000045239XG</t>
   </si>
   <si>
-    <t>JONATAN VILLEGAS PORTILLA ENDESA PAPEL -</t>
+    <t xml:space="preserve">JONATAN VILLEGAS PORTILLA ENDESA PAPEL - </t>
   </si>
   <si>
     <t>ES0027700551836001NJ</t>
@@ -490,37 +511,37 @@
     <t>160.00 €</t>
   </si>
   <si>
-    <t>ORLANDO DIEZ RAMIREZ ENDESA PPNN/DOMESTICO</t>
+    <t xml:space="preserve">ORLANDO DIEZ RAMIREZ ENDESA PPNN/DOMESTICO </t>
   </si>
   <si>
     <t>ES0027700568012001EK</t>
   </si>
   <si>
-    <t>JESUS MANUEL PELAYO RUIZ ENDESA PAPEL - TELEVENTA</t>
+    <t xml:space="preserve">JESUS MANUEL PELAYO RUIZ ENDESA PAPEL - TELEVENTA </t>
   </si>
   <si>
     <t>ES0021000004911434XB</t>
   </si>
   <si>
-    <t>ROBERTO CASTILLO AGOVIA ENDESA PAPEL -</t>
+    <t xml:space="preserve">ROBERTO CASTILLO AGOVIA ENDESA PAPEL - </t>
   </si>
   <si>
     <t>ES0027700536786001ZV</t>
   </si>
   <si>
-    <t>GRUPO SIANT SLU ENDESA PPNN/DOMESTICO</t>
+    <t xml:space="preserve">GRUPO SIANT SLU ENDESA PPNN/DOMESTICO </t>
   </si>
   <si>
     <t>ES0027700556314005JD</t>
   </si>
   <si>
-    <t>VERONICA MARCOS ESTEVEZ ENDESA PAPEL -</t>
+    <t xml:space="preserve">VERONICA MARCOS ESTEVEZ ENDESA PAPEL - </t>
   </si>
   <si>
     <t>ES0022000005702736NB</t>
   </si>
   <si>
-    <t>ANGELES MICAELA DIEZ PERNUDO ENDESA PAPEL -</t>
+    <t xml:space="preserve">ANGELES MICAELA DIEZ PERNUDO ENDESA PAPEL - </t>
   </si>
   <si>
     <t>ES0022000008795319ZZ</t>
@@ -532,7 +553,7 @@
     <t>-84.00 €</t>
   </si>
   <si>
-    <t>RAMON EUMENIO MARTINEZ FERNÁNDEZ</t>
+    <t xml:space="preserve">RAMON EUMENIO MARTINEZ FERNÁNDEZ </t>
   </si>
   <si>
     <t>ES0217020061409693MQ</t>
@@ -550,7 +571,7 @@
     <t>95.00 €</t>
   </si>
   <si>
-    <t>ALBERTO GALLO GUEMES ENDESA PAPEL - TELEVENTA</t>
+    <t xml:space="preserve">ALBERTO GALLO GUEMES ENDESA PAPEL - TELEVENTA </t>
   </si>
   <si>
     <t>ES0021000002054908JQ</t>
@@ -559,13 +580,13 @@
     <t>ES0021000015878335LY</t>
   </si>
   <si>
-    <t>Mª EUGENIA DELGADO ARCEO ENDESA PAPEL - TELEVENTA</t>
+    <t xml:space="preserve">Mª EUGENIA DELGADO ARCEO ENDESA PAPEL - TELEVENTA </t>
   </si>
   <si>
     <t>ES0021000002006412KG</t>
   </si>
   <si>
-    <t>ENDESA PAPEL - TELEVENTA</t>
+    <t xml:space="preserve">EVA SOTO RIOJA ENDESA PAPEL - TELEVENTA </t>
   </si>
   <si>
     <t>ES0021000015408983JS</t>
@@ -574,7 +595,7 @@
     <t>1790.00 €</t>
   </si>
   <si>
-    <t>CLINICA DENTAL PEÑOTA SL</t>
+    <t xml:space="preserve">CLINICA DENTAL PEÑOTA SL </t>
   </si>
   <si>
     <t>ES0021000022215248CM</t>
@@ -601,7 +622,7 @@
     <t>1334.00 €</t>
   </si>
   <si>
-    <t>ESTUDIO JURIDICO Y ECONOMICO DE BILBAO</t>
+    <t xml:space="preserve">ESTUDIO JURIDICO Y ECONOMICO DE BILBAO </t>
   </si>
   <si>
     <t>ES0021000002092428NT</t>
@@ -610,7 +631,7 @@
     <t>771.00 €</t>
   </si>
   <si>
-    <t>CRISTINA RENUNCIO GALIANA</t>
+    <t xml:space="preserve">CRISTINA RENUNCIO GALIANA </t>
   </si>
   <si>
     <t>ES0221080001152744TH</t>
@@ -619,6 +640,9 @@
     <t>131.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">EVA SOTO RIOJA </t>
+  </si>
+  <si>
     <t>ES0229100010821114TZ</t>
   </si>
   <si>
@@ -628,6 +652,9 @@
     <t>101.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">ELENA BURGADA CHIVA </t>
+  </si>
+  <si>
     <t>8014.pdf</t>
   </si>
   <si>
@@ -637,7 +664,7 @@
     <t>-20.98 €</t>
   </si>
   <si>
-    <t>CL SANTA MARIA CORA 2 CDAD</t>
+    <t xml:space="preserve">CL SANTA MARIA CORA 2 CDAD </t>
   </si>
   <si>
     <t>ES0031103686368003CG</t>
@@ -646,7 +673,7 @@
     <t>-45.00 €</t>
   </si>
   <si>
-    <t>JESUS JIMENEZ ARCO</t>
+    <t xml:space="preserve">JESUS JIMENEZ ARCO </t>
   </si>
   <si>
     <t>ES0031101582019001XF</t>
@@ -655,7 +682,7 @@
     <t>-65.00 €</t>
   </si>
   <si>
-    <t>JOAQUIN DONCEL SANCHEZ</t>
+    <t xml:space="preserve">JOAQUIN DONCEL SANCHEZ </t>
   </si>
   <si>
     <t>ES0021000001858888RW</t>
@@ -664,7 +691,7 @@
     <t>-422.00 €</t>
   </si>
   <si>
-    <t>COSME CARMONA BLANCO</t>
+    <t xml:space="preserve">COSME CARMONA BLANCO </t>
   </si>
   <si>
     <t>ES0031105063746001TW</t>
@@ -673,10 +700,7 @@
     <t>963.00 €</t>
   </si>
   <si>
-    <t>DANUBIO SA TOTAL INDEX JAZZ/ROCK</t>
-  </si>
-  <si>
-    <t>repeated</t>
+    <t xml:space="preserve">DANUBIO SA TOTAL INDEX JAZZ/ROCK </t>
   </si>
   <si>
     <t>ES0031101585824001YW</t>
@@ -691,13 +715,13 @@
     <t>-171.00 €</t>
   </si>
   <si>
-    <t>CRUZ Y HALCON</t>
+    <t xml:space="preserve">CRUZ Y HALCON </t>
   </si>
   <si>
     <t>ES0031101531511004GX</t>
   </si>
   <si>
-    <t>CDAD PROP AV STA MARINA N 13 DE</t>
+    <t xml:space="preserve">CDAD PROP AV STA MARINA N 13 DE </t>
   </si>
   <si>
     <t>ES0031101521719001HG</t>
@@ -706,7 +730,7 @@
     <t>253.00 €</t>
   </si>
   <si>
-    <t>ZANZIBAR PLAZA, S.L. TOTAL INDEX JAZZ/ROCK</t>
+    <t xml:space="preserve">ZANZIBAR PLAZA, S.L. TOTAL INDEX JAZZ/ROCK </t>
   </si>
   <si>
     <t>ES0031104300692001CM</t>
@@ -715,7 +739,7 @@
     <t>-13.00 €</t>
   </si>
   <si>
-    <t>FRANCISCO LOPEZ CAMACHO</t>
+    <t xml:space="preserve">FRANCISCO LOPEZ CAMACHO </t>
   </si>
   <si>
     <t>ES0021000013271579AR</t>
@@ -724,19 +748,19 @@
     <t>-24.00 €</t>
   </si>
   <si>
-    <t>MARIA CECILIA MOLDES TAJAN</t>
+    <t xml:space="preserve">MARIA CECILIA MOLDES TAJAN </t>
   </si>
   <si>
     <t>120.00 €</t>
   </si>
   <si>
-    <t>DANUBIO SA REGULARIZACION COMISION</t>
+    <t xml:space="preserve">DANUBIO SA REGULARIZACION COMISION </t>
   </si>
   <si>
     <t>31.00 €</t>
   </si>
   <si>
-    <t>ZANZIBAR PLAZA, S.L. REGULARIZACION COMISION</t>
+    <t xml:space="preserve">ZANZIBAR PLAZA, S.L. REGULARIZACION COMISION </t>
   </si>
   <si>
     <t>8015.pdf</t>
@@ -745,7 +769,7 @@
     <t>ES0258103800640001KM</t>
   </si>
   <si>
-    <t>FRANCISCO JAVIER CARMONA MELENDEZ</t>
+    <t xml:space="preserve">FRANCISCO JAVIER CARMONA MELENDEZ </t>
   </si>
   <si>
     <t>ES0258102800170001YJ</t>
@@ -760,6 +784,9 @@
     <t>355.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">BRASERIA LAS NIÑAS S.C. </t>
+  </si>
+  <si>
     <t>8016.pdf</t>
   </si>
   <si>
@@ -769,13 +796,13 @@
     <t>22.00 €</t>
   </si>
   <si>
-    <t>HECTOR JULIAN CANAVAL ZULETA IBERDROLA ZONA</t>
+    <t xml:space="preserve">HECTOR JULIAN CANAVAL ZULETA IBERDROLA ZONA </t>
   </si>
   <si>
     <t>ES0021000005059150SK</t>
   </si>
   <si>
-    <t>CLINICA DERMATOLOGICA DERMIMED SLP IBERDROLA</t>
+    <t xml:space="preserve">CLINICA DERMATOLOGICA DERMIMED SLP IBERDROLA </t>
   </si>
   <si>
     <t>ES0021000015501478XG</t>
@@ -784,7 +811,7 @@
     <t>819.00 €</t>
   </si>
   <si>
-    <t>CENTRO ESPECIAL DE EMPLEO EL CID SL</t>
+    <t xml:space="preserve">CENTRO ESPECIAL DE EMPLEO EL CID SL </t>
   </si>
   <si>
     <t>8017.pdf</t>
@@ -796,6 +823,9 @@
     <t>30.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">ARCADIO QUESADA RENGEL </t>
+  </si>
+  <si>
     <t>8018.pdf</t>
   </si>
   <si>
@@ -805,6 +835,9 @@
     <t>-312.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">BLP PINO MONTANO HOSTELERIA SL </t>
+  </si>
+  <si>
     <t>ES0031102241719025XR</t>
   </si>
   <si>
@@ -817,6 +850,9 @@
     <t>-11.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">ENCOFRADOS MELLI SL </t>
+  </si>
+  <si>
     <t>ES0031105170597001VV</t>
   </si>
   <si>
@@ -835,13 +871,16 @@
     <t>ES0031105415746001DK</t>
   </si>
   <si>
+    <t xml:space="preserve">ENCOFRADOS RODRIGUEZ SL </t>
+  </si>
+  <si>
     <t>8019.pdf</t>
   </si>
   <si>
     <t>ES0321000002161500SQ</t>
   </si>
   <si>
-    <t>FERNANDO PAREDES CORBACHO ENDESA PAPEL - TELEVENTA</t>
+    <t xml:space="preserve">FERNANDO PAREDES CORBACHO ENDESA PAPEL - TELEVENTA </t>
   </si>
   <si>
     <t>ES0021000001895322KG</t>
@@ -850,13 +889,13 @@
     <t>1320.00 €</t>
   </si>
   <si>
-    <t>AGROPECUARIA FLANDER SL</t>
+    <t xml:space="preserve">AGROPECUARIA FLANDER SL </t>
   </si>
   <si>
     <t>ES0321000002200974YE</t>
   </si>
   <si>
-    <t>FERNANDO RODRIGUEZ DONOSO ENDESA PAPEL - TELEVENTA</t>
+    <t xml:space="preserve">FERNANDO RODRIGUEZ DONOSO ENDESA PAPEL - TELEVENTA </t>
   </si>
   <si>
     <t>ES0321000002106107EF</t>
@@ -865,13 +904,13 @@
     <t>ES0321000002083290LY</t>
   </si>
   <si>
-    <t>ANGEL BENITEZ PRADO ENDESA PAPEL - TELEVENTA</t>
+    <t xml:space="preserve">ANGEL BENITEZ PRADO ENDESA PAPEL - TELEVENTA </t>
   </si>
   <si>
     <t>ES0321000002200321RJ</t>
   </si>
   <si>
-    <t>ALVARO CERRATO GONZALEZ ENDESA PAPEL - TELEVENTA</t>
+    <t xml:space="preserve">ALVARO CERRATO GONZALEZ ENDESA PAPEL - TELEVENTA </t>
   </si>
   <si>
     <t>ES0321000002121000WL</t>
@@ -886,13 +925,16 @@
     <t>-1295.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">KOPPARBERGS ESPAÑA SL </t>
+  </si>
+  <si>
     <t>ES0031104323499001YK</t>
   </si>
   <si>
     <t>-474.00 €</t>
   </si>
   <si>
-    <t>GOMEZ Y MOLINA MARBELLA SL</t>
+    <t xml:space="preserve">GOMEZ Y MOLINA MARBELLA SL </t>
   </si>
   <si>
     <t>ES0031104323503001LL</t>
@@ -907,6 +949,9 @@
     <t>-339.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">CCPP EDIFICIO CORONADO </t>
+  </si>
+  <si>
     <t>ES0031103018241002CA</t>
   </si>
   <si>
@@ -919,19 +964,25 @@
     <t>-54.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">GRAFTON PROPERTIES SL </t>
+  </si>
+  <si>
     <t>ES0031103678539001MH</t>
   </si>
   <si>
     <t>-797.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">KOPPARBERGS BEACH SL </t>
+  </si>
+  <si>
     <t>ES0031104236703001SH</t>
   </si>
   <si>
     <t>2976.00 €</t>
   </si>
   <si>
-    <t>CDAD PROP EL SOTO DE MARBELLA CLUB DE GOLF- CLUB SOCIAL ACCIONA</t>
+    <t xml:space="preserve">CDAD PROP EL SOTO DE MARBELLA CLUB DE GOLF- CLUB SOCIAL ACCIONA </t>
   </si>
   <si>
     <t>ES0031102974197026KS</t>
@@ -940,18 +991,27 @@
     <t>-81.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">RIVAS Y ANAYA SL </t>
+  </si>
+  <si>
     <t>ES0031103603984001NR</t>
   </si>
   <si>
     <t>16566.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">AGRO-JARDIN ESTEPONA SL </t>
+  </si>
+  <si>
     <t>ES0031104107033013LM</t>
   </si>
   <si>
     <t>1500.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">LIYONG ZHOU </t>
+  </si>
+  <si>
     <t>8021.pdf</t>
   </si>
   <si>
@@ -961,7 +1021,7 @@
     <t>226.00 €</t>
   </si>
   <si>
-    <t>CORREDURIA EUROCENTER 2000 DE SEGUROS</t>
+    <t xml:space="preserve">CORREDURIA EUROCENTER 2000 DE SEGUROS </t>
   </si>
   <si>
     <t>ES0031102797582002WJ</t>
@@ -970,6 +1030,9 @@
     <t>606.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">GARCIA JUNCO Y CIA S.L </t>
+  </si>
+  <si>
     <t>ES0031102797582001WN</t>
   </si>
   <si>
@@ -979,7 +1042,7 @@
     <t>-108.00 €</t>
   </si>
   <si>
-    <t>BEGOÑA MARTINEZ FERNANDEZ</t>
+    <t xml:space="preserve">BEGOÑA MARTINEZ FERNANDEZ </t>
   </si>
   <si>
     <t>8022.pdf</t>
@@ -991,12 +1054,18 @@
     <t>1743.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">BEURREBLANC GROUP SL </t>
+  </si>
+  <si>
     <t>ES0031101912260001NS</t>
   </si>
   <si>
     <t>2117.00 €</t>
   </si>
   <si>
+    <t xml:space="preserve">HOSTEL RESTAURACION 2021 SL </t>
+  </si>
+  <si>
     <t>ES0031102062908002PV</t>
   </si>
   <si>
@@ -1015,7 +1084,7 @@
     <t>ES0031607150862001EH</t>
   </si>
   <si>
-    <t>MUEBLES MARAO SL ENDESA PPNN/DOMESTICO</t>
+    <t xml:space="preserve">MUEBLES MARAO SL ENDESA PPNN/DOMESTICO </t>
   </si>
   <si>
     <t>ES0031607398650191SP</t>
@@ -1300,7 +1369,7 @@
     <t>ES0031601042826007AX</t>
   </si>
   <si>
-    <t>MUBELES MARAO SL ENDESA PPNN/DOMESTICO</t>
+    <t xml:space="preserve">MUBELES MARAO SL ENDESA PPNN/DOMESTICO </t>
   </si>
   <si>
     <t>ES0031601042826008AB</t>
@@ -1345,7 +1414,7 @@
     <t>ES0031607122889035TC</t>
   </si>
   <si>
-    <t>MATEO AMBROSIO RAMOS OJEDA ENDESA</t>
+    <t xml:space="preserve">MATEO AMBROSIO RAMOS OJEDA ENDESA </t>
   </si>
   <si>
     <t>ES0031607390316558WB</t>
@@ -1438,7 +1507,7 @@
     <t>ES0031607137214001PB</t>
   </si>
   <si>
-    <t>JORGE ESTEBAN CORDERO OLIVA ENDESA PPNN/DOMESTICO</t>
+    <t xml:space="preserve">JORGE ESTEBAN CORDERO OLIVA ENDESA PPNN/DOMESTICO </t>
   </si>
   <si>
     <t>ES0031601223542001YJ</t>
@@ -1453,7 +1522,7 @@
     <t>ES0031601183933003RM</t>
   </si>
   <si>
-    <t>PEDRO NAVARRO MARTEL ENDESA PPNN/DOMESTICO</t>
+    <t xml:space="preserve">PEDRO NAVARRO MARTEL ENDESA PPNN/DOMESTICO </t>
   </si>
   <si>
     <t>ES0031607538362001AC</t>
@@ -1486,7 +1555,7 @@
     <t>ES0031607439073002YC</t>
   </si>
   <si>
-    <t>MARIA DEL ROSARIO BAEZ BAEZ ENDESA</t>
+    <t xml:space="preserve">MARIA DEL ROSARIO BAEZ BAEZ ENDESA </t>
   </si>
   <si>
     <t>ES0031607439074005GB</t>
@@ -1531,7 +1600,7 @@
     <t>296.00 €</t>
   </si>
   <si>
-    <t>ALMAZARA SAN JOAQUIN DE AGRAMON SL ACCIONA</t>
+    <t xml:space="preserve">ALMAZARA SAN JOAQUIN DE AGRAMON SL ACCIONA </t>
   </si>
   <si>
     <t>ES0021000000325497PK</t>
@@ -1914,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J336"/>
+  <dimension ref="A1:D336"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2628,7 +2697,7 @@
         <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,13 +2705,13 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,13 +2719,13 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,13 +2733,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2678,13 +2747,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,13 +2761,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2706,13 +2775,13 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2720,13 +2789,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,13 +2803,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,13 +2817,13 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,13 +2831,13 @@
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,13 +2845,13 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,13 +2859,13 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D63" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,13 +2873,13 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,13 +2887,13 @@
         <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2832,13 +2901,13 @@
         <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D66" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,13 +2915,13 @@
         <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,13 +2929,13 @@
         <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,13 +2943,13 @@
         <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,13 +2957,13 @@
         <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
         <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,13 +2971,13 @@
         <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,13 +2985,13 @@
         <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,13 +2999,13 @@
         <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,13 +3013,13 @@
         <v>57</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,13 +3027,13 @@
         <v>57</v>
       </c>
       <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" t="s">
         <v>117</v>
-      </c>
-      <c r="C75" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,13 +3041,13 @@
         <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,13 +3055,13 @@
         <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,13 +3069,13 @@
         <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,13 +3083,13 @@
         <v>57</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,13 +3097,13 @@
         <v>57</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,13 +3111,13 @@
         <v>57</v>
       </c>
       <c r="B81" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,13 +3125,13 @@
         <v>57</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3070,13 +3139,13 @@
         <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,13 +3153,13 @@
         <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3098,13 +3167,13 @@
         <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,13 +3181,13 @@
         <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D86" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3126,13 +3195,13 @@
         <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,13 +3209,13 @@
         <v>57</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C88" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,3501 +3223,3471 @@
         <v>57</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D89" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C91" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D91" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D93" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D94" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D95" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D97" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D98" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C99" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D99" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B102" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C102" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D102" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D103" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D104" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B105" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C109" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D110" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C111" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D111" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D112" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C113" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D113" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D114" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D115" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C116" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D116" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B117" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C118" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D118" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B119" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C119" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D119" t="s">
-        <v>220</v>
-      </c>
-      <c r="J119" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C120" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D120" t="s">
-        <v>220</v>
-      </c>
-      <c r="J120" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D121" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B122" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D122" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B123" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C123" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D123" t="s">
-        <v>231</v>
-      </c>
-      <c r="J123" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B124" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C124" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D124" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B125" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C125" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D125" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" t="s">
+        <v>227</v>
+      </c>
+      <c r="C126" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>214</v>
+      </c>
+      <c r="B127" t="s">
+        <v>230</v>
+      </c>
+      <c r="C127" t="s">
+        <v>112</v>
+      </c>
+      <c r="D127" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>214</v>
+      </c>
+      <c r="B128" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>205</v>
-      </c>
-      <c r="B126" t="s">
-        <v>218</v>
-      </c>
-      <c r="C126" t="s">
-        <v>238</v>
-      </c>
-      <c r="D126" t="s">
-        <v>239</v>
-      </c>
-      <c r="J126" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>205</v>
-      </c>
-      <c r="B127" t="s">
-        <v>222</v>
-      </c>
-      <c r="C127" t="s">
-        <v>104</v>
-      </c>
-      <c r="D127" t="s">
-        <v>239</v>
-      </c>
-      <c r="J127" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>205</v>
-      </c>
-      <c r="B128" t="s">
-        <v>229</v>
-      </c>
       <c r="C128" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D128" t="s">
-        <v>241</v>
-      </c>
-      <c r="J128" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B129" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C129" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D129" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B130" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C130" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D130" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B131" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C131" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D131" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C132" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D132" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C133" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D133" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C134" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D134" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B135" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C135" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D135" t="s">
-        <v>3</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C136" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D136" t="s">
-        <v>3</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C137" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D137" t="s">
-        <v>3</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C138" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D138" t="s">
-        <v>3</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B139" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D139" t="s">
-        <v>3</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B140" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D140" t="s">
-        <v>3</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C141" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D141" t="s">
-        <v>3</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D142" t="s">
-        <v>3</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B143" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D143" t="s">
-        <v>3</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D144" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C145" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D145" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B146" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C146" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D146" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B147" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C147" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D147" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B148" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C148" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D148" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B149" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D149" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B150" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C150" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D150" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C151" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D151" t="s">
-        <v>3</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B152" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C152" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D152" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B153" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C153" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D153" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B154" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C154" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D154" t="s">
-        <v>3</v>
+        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B155" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C155" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="D155" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B156" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C156" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D156" t="s">
-        <v>3</v>
+        <v>317</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B157" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C157" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="D157" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B158" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C158" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="D158" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B159" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C159" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="D159" t="s">
-        <v>3</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B160" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C160" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D160" t="s">
-        <v>3</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B161" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="C161" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="D161" t="s">
-        <v>3</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B162" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C162" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D162" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B163" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C163" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D163" t="s">
-        <v>3</v>
+        <v>339</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B164" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="C164" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D164" t="s">
-        <v>3</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B165" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C165" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="D165" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B166" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="C166" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="D166" t="s">
-        <v>3</v>
+        <v>347</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B167" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C167" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="D167" t="s">
-        <v>3</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B168" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="C168" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="D168" t="s">
-        <v>3</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="B169" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="C169" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="D169" t="s">
-        <v>3</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B170" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="C170" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D170" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B171" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="C171" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D171" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B172" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="C172" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D172" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B173" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="C173" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D173" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B174" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="C174" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D174" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B175" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="C175" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D175" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B176" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="C176" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D176" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B177" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D177" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B178" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="C178" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D178" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B179" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="C179" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D179" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B180" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="C180" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D180" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B181" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="C181" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D181" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B182" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="C182" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D182" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B183" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="C183" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D183" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B184" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="C184" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D184" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B185" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="C185" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D185" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B186" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="C186" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D186" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B187" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="C187" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D187" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B188" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="C188" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D188" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B189" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="C189" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D189" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B190" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="C190" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D190" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B191" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="C191" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D191" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B192" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="C192" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D192" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B193" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="C193" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D193" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B194" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="C194" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D194" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B195" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="C195" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D195" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B196" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C196" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D196" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B197" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="C197" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D197" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B198" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="C198" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D198" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B199" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C199" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D199" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B200" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="C200" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D200" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B201" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="C201" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D201" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B202" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C202" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D202" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B203" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="C203" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D203" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B204" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="C204" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D204" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B205" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="C205" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D205" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B206" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="C206" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D206" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B207" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C207" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D207" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B208" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="C208" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D208" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B209" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="C209" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D209" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B210" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="C210" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D210" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B211" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="C211" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D211" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B212" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="C212" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D212" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B213" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="C213" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D213" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B214" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="C214" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D214" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B215" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="C215" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D215" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B216" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="C216" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D216" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B217" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="C217" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D217" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B218" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="C218" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D218" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B219" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="C219" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D219" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B220" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="C220" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D220" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B221" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="C221" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D221" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B222" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="C222" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D222" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B223" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="C223" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D223" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B224" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="C224" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D224" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B225" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="C225" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D225" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B226" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="C226" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D226" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B227" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="C227" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D227" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B228" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="C228" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D228" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B229" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="C229" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D229" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B230" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="C230" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D230" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B231" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="C231" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D231" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B232" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="C232" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D232" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B233" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="C233" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D233" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B234" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="C234" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D234" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B235" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="C235" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D235" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B236" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="C236" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D236" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B237" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="C237" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D237" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B238" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="C238" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D238" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B239" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="C239" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D239" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B240" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="C240" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D240" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B241" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="C241" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D241" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B242" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C242" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D242" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B243" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="C243" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D243" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B244" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="C244" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D244" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B245" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="C245" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D245" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B246" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="C246" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D246" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B247" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="C247" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D247" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B248" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="C248" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D248" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B249" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C249" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D249" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B250" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="C250" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D250" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B251" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="C251" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D251" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B252" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="C252" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D252" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B253" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="C253" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D253" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B254" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="C254" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D254" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B255" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="C255" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D255" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B256" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="C256" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="D256" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B257" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="C257" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D257" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B258" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="C258" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D258" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B259" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="C259" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D259" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B260" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="C260" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D260" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B261" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="C261" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D261" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B262" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="C262" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D262" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B263" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="C263" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D263" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B264" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="C264" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D264" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B265" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="C265" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D265" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B266" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="C266" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D266" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B267" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="C267" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D267" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B268" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="C268" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D268" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B269" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="C269" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D269" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B270" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="C270" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="D270" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B271" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="C271" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="D271" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B272" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="C272" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D272" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B273" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="C273" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D273" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B274" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="C274" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D274" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B275" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="C275" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D275" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B276" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="C276" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D276" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B277" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="C277" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D277" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B278" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="C278" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D278" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B279" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="C279" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D279" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B280" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="C280" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D280" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B281" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="C281" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D281" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B282" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="C282" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D282" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B283" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="C283" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D283" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B284" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="C284" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D284" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B285" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="C285" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D285" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B286" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="C286" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D286" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B287" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="C287" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D287" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B288" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="C288" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D288" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B289" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="C289" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D289" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B290" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="C290" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D290" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B291" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="C291" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D291" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B292" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="C292" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D292" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B293" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="C293" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D293" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B294" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="C294" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D294" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B295" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="C295" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D295" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B296" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="C296" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D296" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B297" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="C297" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D297" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B298" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="C298" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D298" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B299" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="C299" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D299" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B300" t="s">
+        <v>490</v>
+      </c>
+      <c r="C300" t="s">
+        <v>185</v>
+      </c>
+      <c r="D300" t="s">
         <v>467</v>
-      </c>
-      <c r="C300" t="s">
-        <v>178</v>
-      </c>
-      <c r="D300" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B301" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="C301" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D301" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B302" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="C302" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D302" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B303" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C303" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D303" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B304" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="C304" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D304" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B305" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="C305" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D305" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B306" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="C306" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D306" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B307" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="C307" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D307" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B308" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="C308" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D308" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B309" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="C309" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D309" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B310" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="C310" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D310" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B311" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="C311" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D311" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B312" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="C312" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D312" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B313" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="C313" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D313" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B314" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="C314" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D314" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B315" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="C315" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D315" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B316" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="C316" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D316" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B317" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="C317" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D317" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B318" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="C318" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D318" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B319" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="C319" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D319" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B320" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="C320" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D320" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B321" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="C321" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D321" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B322" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="C322" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D322" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B323" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="C323" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D323" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B324" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="C324" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D324" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B325" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="C325" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D325" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B326" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="C326" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D326" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B327" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="C327" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D327" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B328" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="C328" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D328" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B329" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="C329" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D329" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B330" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="C330" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D330" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B331" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="C331" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D331" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="B332" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="C332" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D332" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="B333" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="C333" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="D333" t="s">
-        <v>506</v>
-      </c>
-      <c r="J333" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="B334" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="C334" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D334" t="s">
-        <v>506</v>
-      </c>
-      <c r="J334" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="B335" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="C335" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="D335" t="s">
-        <v>506</v>
-      </c>
-      <c r="J335" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="B336" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="C336" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D336" t="s">
-        <v>506</v>
-      </c>
-      <c r="J336" t="s">
-        <v>221</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
